--- a/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Croizet/Jean-Baptiste_Croizet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Baptiste_Croizet/Jean-Baptiste_Croizet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Croizet,  né le 12 janvier 1787 à Cournon et mort le 5 avril 1859 est un prêtre et paléontologue français.
 </t>
@@ -513,20 +525,200 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Enfance et jeunesse
-Jean-Baptiste Croizet naît à Cournon le 12 janvier 1787. Son père est cultivateur, mais aussi meunier. Le jeune Jean-Baptiste aide très souvent son père dans les différents travaux agricoles ou au moulin.
-Études
-Il passe les premières années de son adolescence auprès de l'abbé Chadefaud, curé de Cournon, puis passe ensuite quelques années chez un ancien oratorien. Entré au séminaire de Montferrand, il est  remarqué pour ses qualités d’analyse et part à Saint-Sulpice pour améliorer ses connaissances dans les différentes sciences : l'astronomie, la zoologie, la philosophie, l'histoire comparée des religions, etc. Il est de retour en 1811, et est ordonné prêtre quelques mois après, ce qui lui permet d'enseigner la philosophie au séminaire de Montferrand et d'être nommé curé de Neschers.
-Activités scientifiques
-En 1824 à l'initiative d'une équipe de chercheurs, une société voit le jour à Clermont-Ferrand où on parle de géologie, paléontologie, minéralogie et botanique, et il en devient le secrétaire jusqu'en 1825. 
-Avec son ami Antoine Claude Gabriel Jobert, il découvre et décrit en 1828[1] une riche faune fossile tertiaire (Villafranchien, Pliocène), que Cuvier examine (restes de cerfs, d'éléphants, d'hippopotames, de tapirs, de chevaux, de mastodontes, de rhinocéros, d'ours, de tigres, hyènes, castors, loutres, bovins, etc.). Il découvre notamment un bois de renne vieux de 14 000 ans sur lequel est gravé un cheval. Cet objet témoin de l'art paléolithique se trouve aujourd’hui au Natural History Museum de Londres,[2],[3].
+          <t>Enfance et jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Baptiste Croizet naît à Cournon le 12 janvier 1787. Son père est cultivateur, mais aussi meunier. Le jeune Jean-Baptiste aide très souvent son père dans les différents travaux agricoles ou au moulin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il passe les premières années de son adolescence auprès de l'abbé Chadefaud, curé de Cournon, puis passe ensuite quelques années chez un ancien oratorien. Entré au séminaire de Montferrand, il est  remarqué pour ses qualités d’analyse et part à Saint-Sulpice pour améliorer ses connaissances dans les différentes sciences : l'astronomie, la zoologie, la philosophie, l'histoire comparée des religions, etc. Il est de retour en 1811, et est ordonné prêtre quelques mois après, ce qui lui permet d'enseigner la philosophie au séminaire de Montferrand et d'être nommé curé de Neschers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activités scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1824 à l'initiative d'une équipe de chercheurs, une société voit le jour à Clermont-Ferrand où on parle de géologie, paléontologie, minéralogie et botanique, et il en devient le secrétaire jusqu'en 1825. 
+Avec son ami Antoine Claude Gabriel Jobert, il découvre et décrit en 1828 une riche faune fossile tertiaire (Villafranchien, Pliocène), que Cuvier examine (restes de cerfs, d'éléphants, d'hippopotames, de tapirs, de chevaux, de mastodontes, de rhinocéros, d'ours, de tigres, hyènes, castors, loutres, bovins, etc.). Il découvre notamment un bois de renne vieux de 14 000 ans sur lequel est gravé un cheval. Cet objet témoin de l'art paléolithique se trouve aujourd’hui au Natural History Museum de Londres.
 Il est élu vice-président en 1838 à Clermont-Ferrand, de nouveau en 1840 à Lyon, enfin nommé président de la section des sciences en 1855 au Puy. Il entretient une correspondance importante avec les savants Georges Cuvier, Geoffroy Saint Hilaire mais aussi avec bien d'autres érudits. Il continue ses recherches qui donnèrent lieu à des publications, donne des conférences, voyage dans une partie de l'Europe et reçoit des savants étrangers chez lui.
-Loin des honneurs
-On lui propose une place de vicaire général à Bourges, mais il la refuse, ainsi que celle de Mathieu de Montmorency, qui s'était rendu à Neschers pour lui offrir un évêché, préférant sa cure dans ce village qui compte à cette époque environ 1150 habitants. Une nouvelle direction de diocèse lui est présentée, cette fois sous Louis Philippe, par Monsieur Barthe alors garde des sceaux, mais le curé Croizet la décline de nouveau.
-Décès
-Il meurt le 5 avril 1859 dans sa soixante-treizième année,  et une foule lui rend un dernier hommage : prêtres, savants, notables et anonymes. Sa pierre tombale est située dans le cimetière de Neschers.
-Livres, notes, rapports et discours publiés
-Discours prononcé lors d'une séance de la société de géologie, minéralogie et botanique d'Auvergne, ayant trait à ses recherches, 1824.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Loin des honneurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui propose une place de vicaire général à Bourges, mais il la refuse, ainsi que celle de Mathieu de Montmorency, qui s'était rendu à Neschers pour lui offrir un évêché, préférant sa cure dans ce village qui compte à cette époque environ 1150 habitants. Une nouvelle direction de diocèse lui est présentée, cette fois sous Louis Philippe, par Monsieur Barthe alors garde des sceaux, mais le curé Croizet la décline de nouveau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt le 5 avril 1859 dans sa soixante-treizième année,  et une foule lui rend un dernier hommage : prêtres, savants, notables et anonymes. Sa pierre tombale est située dans le cimetière de Neschers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Croizet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres, notes, rapports et discours publiés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Discours prononcé lors d'une séance de la société de géologie, minéralogie et botanique d'Auvergne, ayant trait à ses recherches, 1824.
 Rapport présenté à l'académie des sciences, belles lettres et arts, de Clermont-Ferrand d'après une étude menée par Balbi et Guerry sur trois années de 1825 à 1827 "statistique comparée du nombre des crimes et de l'état de l'instruction, dans les divers arrondissements des cours royales et des académies de France", 1828.
 Recherches sur les ossemens fossiles du département du Puy-de-Dôme, Clermont-Ferrand, Thibaud-Landriot, 1828
 Note sur une mâchoire inférieure d’Antracothérium, trouvée dans les grés tertiaires de la Limagne, en collaboration avec M. Jobert Ainé, 1829.
@@ -545,33 +737,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jean-Baptiste_Croizet</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Baptiste_Croizet</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première collection Croizet (qui contient celles de Jean-Baptiste Bouillet et la première collection d'Auguste Bravard) a été vendue en 1838 au Muséum national d’histoire naturelle de Paris. La deuxième collection Croizet a été vendue au British Museum à Londres en 1847[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première collection Croizet (qui contient celles de Jean-Baptiste Bouillet et la première collection d'Auguste Bravard) a été vendue en 1838 au Muséum national d’histoire naturelle de Paris. La deuxième collection Croizet a été vendue au British Museum à Londres en 1847.
 </t>
         </is>
       </c>
